--- a/Aufgabe_1_-_Lösungshilfe.xlsx
+++ b/Aufgabe_1_-_Lösungshilfe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabe 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
   <si>
     <t xml:space="preserve">gl. Durchschnitt</t>
   </si>
@@ -46,9 +46,21 @@
     <t xml:space="preserve">abs. Fehler</t>
   </si>
   <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha </t>
+  </si>
+  <si>
     <t xml:space="preserve">???</t>
   </si>
   <si>
+    <t xml:space="preserve">Besser geignet: Exponentielle Glättung, passt sich besser dem Verlauf an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aber: Beide scheinen nicht sonderlich gut</t>
+  </si>
+  <si>
     <t xml:space="preserve">ERR</t>
   </si>
   <si>
@@ -56,6 +68,15 @@
   </si>
   <si>
     <t xml:space="preserve">SIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfahren eher ungeeignet, hoher SIG vor allem Richtung Ende</t>
   </si>
   <si>
     <t xml:space="preserve">x_t</t>
@@ -152,9 +173,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -214,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -280,15 +302,15 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
-      <right/>
-      <top/>
+      <right style="medium"/>
+      <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
-      <top/>
+      <right style="medium"/>
+      <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -296,13 +318,6 @@
       <left/>
       <right style="medium"/>
       <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -321,9 +336,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <left style="medium"/>
+      <right/>
+      <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -367,7 +382,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,8 +419,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -424,15 +439,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -444,19 +455,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,59 +511,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -532,7 +535,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -612,7 +615,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -798,6 +801,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>106.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134.475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148.325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147.525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145.325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140.325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>145.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>139.725</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -872,6 +908,42 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131.4768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.00144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>139.661152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138.3089216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.60713728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140.545709824</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140.0965678592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>142.51725428736</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>139.633803429888</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -885,11 +957,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94350821"/>
-        <c:axId val="58233245"/>
+        <c:axId val="8360356"/>
+        <c:axId val="66278560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94350821"/>
+        <c:axId val="8360356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +993,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58233245"/>
+        <c:crossAx val="66278560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -929,7 +1001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58233245"/>
+        <c:axId val="66278560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -969,7 +1041,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94350821"/>
+        <c:crossAx val="8360356"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1021,7 +1093,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1341,11 +1413,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="97898590"/>
-        <c:axId val="35281375"/>
+        <c:axId val="25904676"/>
+        <c:axId val="34675983"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97898590"/>
+        <c:axId val="25904676"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35281375"/>
+        <c:crossAx val="34675983"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1385,7 +1457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35281375"/>
+        <c:axId val="34675983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +1496,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97898590"/>
+        <c:crossAx val="25904676"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1476,7 +1548,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1624,11 +1696,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26727333"/>
-        <c:axId val="63988645"/>
+        <c:axId val="64808807"/>
+        <c:axId val="59991235"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26727333"/>
+        <c:axId val="64808807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,12 +1742,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63988645"/>
+        <c:crossAx val="59991235"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63988645"/>
+        <c:axId val="59991235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,7 +1789,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26727333"/>
+        <c:crossAx val="64808807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1745,7 +1817,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1893,11 +1965,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="7354401"/>
-        <c:axId val="83876703"/>
+        <c:axId val="1980680"/>
+        <c:axId val="60530869"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7354401"/>
+        <c:axId val="1980680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,12 +2011,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83876703"/>
+        <c:crossAx val="60530869"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83876703"/>
+        <c:axId val="60530869"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,7 +2058,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7354401"/>
+        <c:crossAx val="1980680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2027,7 +2099,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>326520</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2077,7 +2149,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5968800" y="3962520"/>
+          <a:off x="5968800" y="3876840"/>
           <a:ext cx="4854240" cy="3178800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2114,7 +2186,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11022480" y="4276800"/>
+          <a:off x="11022480" y="4191120"/>
           <a:ext cx="5158080" cy="2156400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2146,7 +2218,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="714240" y="2819520"/>
+        <a:off x="714240" y="2733840"/>
         <a:ext cx="4482000" cy="2971440"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2173,7 +2245,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>552240</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2218,8 +2290,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="314280" y="2657520"/>
-        <a:ext cx="4517640" cy="2742840"/>
+        <a:off x="314280" y="2583360"/>
+        <a:ext cx="4517640" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2570,10 +2642,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2582,7 +2654,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.87"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -2596,7 +2668,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2622,176 +2694,390 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>106.6</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="12" t="n">
+        <v>130</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <f aca="false">B3-F3</f>
+        <v>-23.4</v>
+      </c>
+      <c r="H3" s="13" t="n">
+        <f aca="false">ABS(G3)</f>
+        <v>23.4</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="14" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>129.2</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="15" t="n">
+        <f aca="false">B3</f>
+        <v>106.6</v>
+      </c>
+      <c r="D4" s="16" t="n">
+        <f aca="false">B4-C4</f>
+        <v>22.6</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <f aca="false">ABS(D4)</f>
+        <v>22.6</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <f aca="false">$T$3*B3+(1-$T$3)*F3</f>
+        <v>125.32</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <f aca="false">B4-F4</f>
+        <v>3.88</v>
+      </c>
+      <c r="H4" s="13" t="n">
+        <f aca="false">ABS(G4)</f>
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>153</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="15" t="n">
+        <f aca="false">AVERAGE(B3:B4)</f>
+        <v>117.9</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <f aca="false">B5-C5</f>
+        <v>35.1</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <f aca="false">ABS(D5)</f>
+        <v>35.1</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <f aca="false">$T$3*B4+(1-$T$3)*F4</f>
+        <v>126.096</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <f aca="false">B5-F5</f>
+        <v>26.904</v>
+      </c>
+      <c r="H5" s="13" t="n">
+        <f aca="false">ABS(G5)</f>
+        <v>26.904</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>149.1</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="15" t="n">
+        <f aca="false">AVERAGE(B3:B5)</f>
+        <v>129.6</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <f aca="false">B6-C6</f>
+        <v>19.5</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <f aca="false">ABS(D6)</f>
+        <v>19.5</v>
+      </c>
+      <c r="F6" s="12" t="n">
+        <f aca="false">$T$3*B5+(1-$T$3)*F5</f>
+        <v>131.4768</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <f aca="false">B6-F6</f>
+        <v>17.6232</v>
+      </c>
+      <c r="H6" s="13" t="n">
+        <f aca="false">ABS(G6)</f>
+        <v>17.6232</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>158.3</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="18" t="n">
+        <f aca="false">AVERAGE(B3:B6)</f>
+        <v>134.475</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <f aca="false">B7-C7</f>
+        <v>23.825</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <f aca="false">ABS(D7)</f>
+        <v>23.825</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <f aca="false">$T$3*B6+(1-$T$3)*F6</f>
+        <v>135.00144</v>
+      </c>
+      <c r="G7" s="12" t="n">
+        <f aca="false">B7-F7</f>
+        <v>23.29856</v>
+      </c>
+      <c r="H7" s="13" t="n">
+        <f aca="false">ABS(G7)</f>
+        <v>23.29856</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>132.9</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="18" t="n">
+        <f aca="false">AVERAGE(B4:B7)</f>
+        <v>147.4</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <f aca="false">B8-C8</f>
+        <v>-14.5</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <f aca="false">ABS(D8)</f>
+        <v>14.5</v>
+      </c>
+      <c r="F8" s="12" t="n">
+        <f aca="false">$T$3*B7+(1-$T$3)*F7</f>
+        <v>139.661152</v>
+      </c>
+      <c r="G8" s="12" t="n">
+        <f aca="false">B8-F8</f>
+        <v>-6.76115200000001</v>
+      </c>
+      <c r="H8" s="13" t="n">
+        <f aca="false">ABS(G8)</f>
+        <v>6.76115200000001</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>149.8</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="18" t="n">
+        <f aca="false">AVERAGE(B5:B8)</f>
+        <v>148.325</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <f aca="false">B9-C9</f>
+        <v>1.47500000000002</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <f aca="false">ABS(D9)</f>
+        <v>1.47500000000002</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <f aca="false">$T$3*B8+(1-$T$3)*F8</f>
+        <v>138.3089216</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <f aca="false">B9-F9</f>
+        <v>11.4910784</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <f aca="false">ABS(G9)</f>
+        <v>11.4910784</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>140.3</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="18" t="n">
+        <f aca="false">AVERAGE(B6:B9)</f>
+        <v>147.525</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <f aca="false">B10-C10</f>
+        <v>-7.22499999999999</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <f aca="false">ABS(D10)</f>
+        <v>7.22499999999999</v>
+      </c>
+      <c r="F10" s="12" t="n">
+        <f aca="false">$T$3*B9+(1-$T$3)*F9</f>
+        <v>140.60713728</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <f aca="false">B10-F10</f>
+        <v>-0.307137280000006</v>
+      </c>
+      <c r="H10" s="13" t="n">
+        <f aca="false">ABS(G10)</f>
+        <v>0.307137280000006</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>138.3</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="18" t="n">
+        <f aca="false">AVERAGE(B7:B10)</f>
+        <v>145.325</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <f aca="false">B11-C11</f>
+        <v>-7.02500000000001</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <f aca="false">ABS(D11)</f>
+        <v>7.02500000000001</v>
+      </c>
+      <c r="F11" s="12" t="n">
+        <f aca="false">$T$3*B10+(1-$T$3)*F10</f>
+        <v>140.545709824</v>
+      </c>
+      <c r="G11" s="12" t="n">
+        <f aca="false">B11-F11</f>
+        <v>-2.24570982400002</v>
+      </c>
+      <c r="H11" s="13" t="n">
+        <f aca="false">ABS(G11)</f>
+        <v>2.24570982400002</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>152.2</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="18" t="n">
+        <f aca="false">AVERAGE(B8:B11)</f>
+        <v>140.325</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <f aca="false">B12-C12</f>
+        <v>11.875</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <f aca="false">ABS(D12)</f>
+        <v>11.875</v>
+      </c>
+      <c r="F12" s="12" t="n">
+        <f aca="false">$T$3*B11+(1-$T$3)*F11</f>
+        <v>140.0965678592</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <f aca="false">B12-F12</f>
+        <v>12.1034321408</v>
+      </c>
+      <c r="H12" s="13" t="n">
+        <f aca="false">ABS(G12)</f>
+        <v>12.1034321408</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="19" t="n">
         <v>128.1</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="n">
+      <c r="C13" s="18" t="n">
+        <f aca="false">AVERAGE(B9:B12)</f>
+        <v>145.15</v>
+      </c>
+      <c r="D13" s="16" t="n">
+        <f aca="false">B13-C13</f>
+        <v>-17.05</v>
+      </c>
+      <c r="E13" s="17" t="n">
+        <f aca="false">ABS(D13)</f>
+        <v>17.05</v>
+      </c>
+      <c r="F13" s="12" t="n">
+        <f aca="false">$T$3*B12+(1-$T$3)*F12</f>
+        <v>142.51725428736</v>
+      </c>
+      <c r="G13" s="12" t="n">
+        <f aca="false">B13-F13</f>
+        <v>-14.41725428736</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <f aca="false">ABS(G13)</f>
+        <v>14.41725428736</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+        <v>9</v>
+      </c>
+      <c r="C14" s="18" t="n">
+        <f aca="false">AVERAGE(B10:B13)</f>
+        <v>139.725</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="12" t="n">
+        <f aca="false">$T$3*B13+(1-$T$3)*F13</f>
+        <v>139.633803429888</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2814,10 +3100,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U24" activeCellId="0" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2826,232 +3112,387 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="E1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="G2" s="27" t="n">
+        <f aca="false">E2/F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>26.8</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="15" t="n">
         <v>46</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="D3" s="16" t="n">
+        <f aca="false">B3-C3</f>
+        <v>-19.2</v>
+      </c>
+      <c r="E3" s="16" t="n">
+        <f aca="false">(1-$U$8)*E2+$U$8*D3</f>
+        <v>-1.92</v>
+      </c>
+      <c r="F3" s="16" t="n">
+        <f aca="false">(1-$U$7)*F2+$U$7*ABS(D3)</f>
+        <v>10.92</v>
+      </c>
+      <c r="G3" s="27" t="n">
+        <f aca="false">E3/F3</f>
+        <v>-0.175824175824176</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>39.2</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="18" t="n">
         <f aca="false">0.8*C3+0.2*B3</f>
         <v>42.16</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="D4" s="16" t="n">
+        <f aca="false">B4-C4</f>
+        <v>-2.96</v>
+      </c>
+      <c r="E4" s="16" t="n">
+        <f aca="false">(1-$U$8)*E3+$U$8*D4</f>
+        <v>-2.024</v>
+      </c>
+      <c r="F4" s="16" t="n">
+        <f aca="false">(1-$U$7)*F3+$U$7*ABS(D4)</f>
+        <v>10.124</v>
+      </c>
+      <c r="G4" s="27" t="n">
+        <f aca="false">E4/F4</f>
+        <v>-0.199920979849862</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>72.3</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="18" t="n">
         <f aca="false">0.8*C4+0.2*B4</f>
         <v>41.568</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="D5" s="16" t="n">
+        <f aca="false">B5-C5</f>
+        <v>30.732</v>
+      </c>
+      <c r="E5" s="16" t="n">
+        <f aca="false">(1-$U$8)*E4+$U$8*D5</f>
+        <v>1.2516</v>
+      </c>
+      <c r="F5" s="16" t="n">
+        <f aca="false">(1-$U$7)*F4+$U$7*ABS(D5)</f>
+        <v>12.1848</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <f aca="false">E5/F5</f>
+        <v>0.102718140634233</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>71.3</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="18" t="n">
         <f aca="false">0.8*C5+0.2*B5</f>
         <v>47.7144</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="D6" s="16" t="n">
+        <f aca="false">B6-C6</f>
+        <v>23.5856</v>
+      </c>
+      <c r="E6" s="16" t="n">
+        <f aca="false">(1-$U$8)*E5+$U$8*D6</f>
+        <v>3.485</v>
+      </c>
+      <c r="F6" s="16" t="n">
+        <f aca="false">(1-$U$7)*F5+$U$7*ABS(D6)</f>
+        <v>13.32488</v>
+      </c>
+      <c r="G6" s="27" t="n">
+        <f aca="false">E6/F6</f>
+        <v>0.2615408168779</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>83.2</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="18" t="n">
         <f aca="false">0.8*C6+0.2*B6</f>
         <v>52.43152</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="D7" s="16" t="n">
+        <f aca="false">B7-C7</f>
+        <v>30.76848</v>
+      </c>
+      <c r="E7" s="16" t="n">
+        <f aca="false">(1-$U$8)*E6+$U$8*D7</f>
+        <v>6.213348</v>
+      </c>
+      <c r="F7" s="16" t="n">
+        <f aca="false">(1-$U$7)*F6+$U$7*ABS(D7)</f>
+        <v>15.06924</v>
+      </c>
+      <c r="G7" s="27" t="n">
+        <f aca="false">E7/F7</f>
+        <v>0.412319931197592</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" s="14" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>92.9</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="18" t="n">
         <f aca="false">0.8*C7+0.2*B7</f>
         <v>58.585216</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="D8" s="16" t="n">
+        <f aca="false">B8-C8</f>
+        <v>34.314784</v>
+      </c>
+      <c r="E8" s="16" t="n">
+        <f aca="false">(1-$U$8)*E7+$U$8*D8</f>
+        <v>9.0234916</v>
+      </c>
+      <c r="F8" s="16" t="n">
+        <f aca="false">(1-$U$7)*F7+$U$7*ABS(D8)</f>
+        <v>16.9937944</v>
+      </c>
+      <c r="G8" s="27" t="n">
+        <f aca="false">E8/F8</f>
+        <v>0.530987452690377</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" s="14" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>121.9</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="18" t="n">
         <f aca="false">0.8*C8+0.2*B8</f>
         <v>65.4481728</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+      <c r="D9" s="16" t="n">
+        <f aca="false">B9-C9</f>
+        <v>56.4518272</v>
+      </c>
+      <c r="E9" s="16" t="n">
+        <f aca="false">(1-$U$8)*E8+$U$8*D9</f>
+        <v>13.76632516</v>
+      </c>
+      <c r="F9" s="16" t="n">
+        <f aca="false">(1-$U$7)*F8+$U$7*ABS(D9)</f>
+        <v>20.93959768</v>
+      </c>
+      <c r="G9" s="27" t="n">
+        <f aca="false">E9/F9</f>
+        <v>0.657430260618073</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>112.1</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="18" t="n">
         <f aca="false">0.8*C9+0.2*B9</f>
         <v>76.73853824</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="D10" s="16" t="n">
+        <f aca="false">B10-C10</f>
+        <v>35.36146176</v>
+      </c>
+      <c r="E10" s="16" t="n">
+        <f aca="false">(1-$U$8)*E9+$U$8*D10</f>
+        <v>15.92583882</v>
+      </c>
+      <c r="F10" s="16" t="n">
+        <f aca="false">(1-$U$7)*F9+$U$7*ABS(D10)</f>
+        <v>22.381784088</v>
+      </c>
+      <c r="G10" s="27" t="n">
+        <f aca="false">E10/F10</f>
+        <v>0.711553590070536</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>115.8</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="18" t="n">
         <f aca="false">0.8*C10+0.2*B10</f>
         <v>83.810830592</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+      <c r="D11" s="16" t="n">
+        <f aca="false">B11-C11</f>
+        <v>31.989169408</v>
+      </c>
+      <c r="E11" s="16" t="n">
+        <f aca="false">(1-$U$8)*E10+$U$8*D11</f>
+        <v>17.5321718788</v>
+      </c>
+      <c r="F11" s="16" t="n">
+        <f aca="false">(1-$U$7)*F10+$U$7*ABS(D11)</f>
+        <v>23.34252262</v>
+      </c>
+      <c r="G11" s="27" t="n">
+        <f aca="false">E11/F11</f>
+        <v>0.751082998363611</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>154.2</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="18" t="n">
         <f aca="false">0.8*C11+0.2*B11</f>
         <v>90.2086644736</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="n">
+      <c r="D12" s="16" t="n">
+        <f aca="false">B12-C12</f>
+        <v>63.9913355264</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <f aca="false">(1-$U$8)*E11+$U$8*D12</f>
+        <v>22.17808824356</v>
+      </c>
+      <c r="F12" s="16" t="n">
+        <f aca="false">(1-$U$7)*F11+$U$7*ABS(D12)</f>
+        <v>27.40740391064</v>
+      </c>
+      <c r="G12" s="27" t="n">
+        <f aca="false">E12/F12</f>
+        <v>0.809200620236421</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="19" t="n">
         <v>175.2</v>
       </c>
-      <c r="C13" s="20" t="n">
+      <c r="C13" s="29" t="n">
         <f aca="false">0.8*C12+0.2*B12</f>
         <v>103.00693157888</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="n">
+      <c r="D13" s="16" t="n">
+        <f aca="false">B13-C13</f>
+        <v>72.19306842112</v>
+      </c>
+      <c r="E13" s="16" t="n">
+        <f aca="false">(1-$U$8)*E12+$U$8*D13</f>
+        <v>27.179586261316</v>
+      </c>
+      <c r="F13" s="16" t="n">
+        <f aca="false">(1-$U$7)*F12+$U$7*ABS(D13)</f>
+        <v>31.885970361688</v>
+      </c>
+      <c r="G13" s="27" t="n">
+        <f aca="false">E13/F13</f>
+        <v>0.852399533494302</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="25" t="n">
+      <c r="B14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="31" t="n">
         <f aca="false">0.8*C13+0.2*B13</f>
         <v>117.445545263104</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33" t="n">
+        <f aca="false">AVERAGE(G2:G13)</f>
+        <v>0.392790682375751</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3090,22 +3531,22 @@
   </cols>
   <sheetData>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="37" t="s">
+      <c r="B12" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
-        <v>12</v>
+      <c r="A13" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -3114,16 +3555,16 @@
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,7 +3575,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,35 +3586,35 @@
         <v>7</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="40"/>
+        <v>20</v>
+      </c>
+      <c r="G15" s="37"/>
       <c r="J15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="40"/>
+        <v>22</v>
+      </c>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="38" t="n">
+      <c r="B16" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="38" t="n">
+      <c r="C16" s="35" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="s">
-        <v>17</v>
+      <c r="A18" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -3182,16 +3623,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,7 +3643,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,59 +3654,59 @@
         <v>6</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="40"/>
+        <v>20</v>
+      </c>
+      <c r="G20" s="37"/>
       <c r="J20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="40"/>
+        <v>22</v>
+      </c>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="38" t="n">
+      <c r="B21" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="38" t="n">
+      <c r="C21" s="35" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="37" t="s">
+      <c r="B37" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="37" t="s">
+      <c r="D37" s="36"/>
+      <c r="E37" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="36" t="s">
         <v>19</v>
-      </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="39" t="s">
-        <v>12</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -3291,26 +3732,26 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="38" t="n">
+      <c r="B41" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="C41" s="38" t="n">
+      <c r="C41" s="35" t="n">
         <v>9</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="L41" s="40"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="L41" s="37"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E42" s="40"/>
+      <c r="E42" s="37"/>
       <c r="G42" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H42" s="0" t="n">
         <f aca="false">SUM(H38:H41)</f>
@@ -3326,17 +3767,17 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="39" t="s">
-        <v>17</v>
+      <c r="A44" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
@@ -3362,25 +3803,25 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="38" t="n">
+      <c r="B47" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="C47" s="38" t="n">
+      <c r="C47" s="35" t="n">
         <v>10</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E48" s="40"/>
+      <c r="E48" s="37"/>
       <c r="G48" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H48" s="0" t="n">
         <f aca="false">SUM(H44:H47)</f>
@@ -3396,7 +3837,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L49" s="40"/>
+      <c r="L49" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3433,43 +3874,43 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2016</v>
@@ -3480,13 +3921,13 @@
       <c r="D2" s="0" t="n">
         <v>15.45</v>
       </c>
-      <c r="H2" s="42" t="s">
-        <v>30</v>
+      <c r="H2" s="39" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2017</v>
@@ -3497,13 +3938,13 @@
       <c r="D3" s="0" t="n">
         <v>46.26</v>
       </c>
-      <c r="H3" s="42" t="s">
-        <v>32</v>
+      <c r="H3" s="39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2017</v>
@@ -3514,13 +3955,13 @@
       <c r="D4" s="0" t="n">
         <v>85.52</v>
       </c>
-      <c r="H4" s="42" t="s">
-        <v>34</v>
+      <c r="H4" s="39" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2017</v>
@@ -3531,13 +3972,13 @@
       <c r="D5" s="0" t="n">
         <v>139.13</v>
       </c>
-      <c r="H5" s="42" t="s">
-        <v>36</v>
+      <c r="H5" s="39" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2017</v>
@@ -3548,13 +3989,13 @@
       <c r="D6" s="0" t="n">
         <v>213.84</v>
       </c>
-      <c r="H6" s="42" t="s">
-        <v>38</v>
+      <c r="H6" s="39" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2017</v>
@@ -3565,15 +4006,15 @@
       <c r="D7" s="0" t="n">
         <v>101.08</v>
       </c>
-      <c r="H7" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
+      <c r="H7" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2017</v>
@@ -3587,7 +4028,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2018</v>
@@ -3601,7 +4042,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2018</v>
@@ -3615,7 +4056,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2018</v>
@@ -3629,7 +4070,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2018</v>
@@ -3643,7 +4084,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2018</v>
@@ -3657,7 +4098,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2018</v>
@@ -3671,7 +4112,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2019</v>
@@ -3685,7 +4126,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2019</v>
@@ -3699,7 +4140,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2019</v>
@@ -3713,7 +4154,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2019</v>
@@ -3726,23 +4167,23 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="38" t="n">
+      <c r="A19" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="35" t="n">
         <v>2019</v>
       </c>
-      <c r="C19" s="38" t="n">
+      <c r="C19" s="35" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="38" t="n">
+      <c r="D19" s="35" t="n">
         <v>243.24</v>
       </c>
-      <c r="O19" s="38"/>
+      <c r="O19" s="35"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2019</v>
@@ -3753,7 +4194,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2020</v>
@@ -3764,7 +4205,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2020</v>
@@ -3775,7 +4216,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2020</v>
@@ -3786,7 +4227,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2020</v>
@@ -3797,7 +4238,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2020</v>
@@ -3805,9 +4246,9 @@
       <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Aufgabe_1_-_Lösungshilfe.xlsx
+++ b/Aufgabe_1_-_Lösungshilfe.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t xml:space="preserve">gl. Durchschnitt</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">alpha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">???</t>
   </si>
   <si>
     <t xml:space="preserve">Besser geignet: Exponentielle Glättung, passt sich besser dem Verlauf an</t>
@@ -382,7 +379,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -467,12 +464,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -511,12 +516,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -615,7 +616,1000 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aufgabe 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y_t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4f81bd"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4f81bd"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Aufgabe 2'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aufgabe 2'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aufgabe 2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prognose</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28440">
+              <a:solidFill>
+                <a:srgbClr val="c0504d"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c0504d"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Aufgabe 2'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aufgabe 2'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.7144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.43152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.585216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.4481728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.73853824</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.810830592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.2086644736</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.00693157888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="19701165"/>
+        <c:axId val="69753303"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="19701165"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69753303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69753303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19701165"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>1. Reihe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aufgabe 3'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y_t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4f81bd"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Aufgabe 3'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Aufgabe 3'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="24284204"/>
+        <c:axId val="92536829"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="24284204"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92536829"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92536829"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24284204"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>2. Reihe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aufgabe 3'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y_t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4f81bd"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Aufgabe 3'!$B$18:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Aufgabe 3'!$C$18:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="34271508"/>
+        <c:axId val="1351753"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="34271508"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351753"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1351753"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34271508"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -957,11 +1951,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="8360356"/>
-        <c:axId val="66278560"/>
+        <c:axId val="28111672"/>
+        <c:axId val="6580959"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8360356"/>
+        <c:axId val="28111672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +1987,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66278560"/>
+        <c:crossAx val="6580959"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1001,7 +1995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66278560"/>
+        <c:axId val="6580959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -1041,7 +2035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8360356"/>
+        <c:crossAx val="28111672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1077,1000 +2071,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Aufgabe 2'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y_t</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4f81bd"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4f81bd"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Aufgabe 2'!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Aufgabe 2'!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="1">
-                  <c:v>26.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>83.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>121.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>112.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>115.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>154.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>175.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Aufgabe 2'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Prognose</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
-              <a:solidFill>
-                <a:srgbClr val="c0504d"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="c0504d"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Aufgabe 2'!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Aufgabe 2'!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="1">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.568</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.7144</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52.43152</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.585216</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>65.4481728</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>76.73853824</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>83.810830592</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>90.2086644736</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>103.00693157888</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="25904676"/>
-        <c:axId val="34675983"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="25904676"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="34675983"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="34675983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="25904676"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>1. Reihe</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Aufgabe 3'!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y_t</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4f81bd"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Aufgabe 3'!$B$13:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Aufgabe 3'!$C$13:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="64808807"/>
-        <c:axId val="59991235"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="64808807"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59991235"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="59991235"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="64808807"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>2. Reihe</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Aufgabe 3'!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y_t</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4f81bd"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Aufgabe 3'!$B$18:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Aufgabe 3'!$C$18:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1980680"/>
-        <c:axId val="60530869"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1980680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="60530869"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="60530869"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1980680"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2097,9 +2098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>326520</xdr:colOff>
+      <xdr:colOff>326160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2112,8 +2113,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6026040" y="95400"/>
-          <a:ext cx="6523560" cy="3569400"/>
+          <a:off x="6035040" y="95400"/>
+          <a:ext cx="6534720" cy="3569040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2134,9 +2135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2149,8 +2150,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5968800" y="3876840"/>
-          <a:ext cx="4854240" cy="3178800"/>
+          <a:off x="5977800" y="3876840"/>
+          <a:ext cx="4862880" cy="3178440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2171,9 +2172,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>191880</xdr:colOff>
+      <xdr:colOff>191520</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2186,8 +2187,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11022480" y="4191120"/>
-          <a:ext cx="5158080" cy="2156400"/>
+          <a:off x="11040480" y="4191120"/>
+          <a:ext cx="5166360" cy="2156040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2208,9 +2209,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>504360</xdr:colOff>
+      <xdr:colOff>504000</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2218,8 +2219,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="714240" y="2733840"/>
-        <a:ext cx="4482000" cy="2971440"/>
+        <a:off x="714960" y="2733840"/>
+        <a:ext cx="4488840" cy="2971080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2243,9 +2244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>552240</xdr:colOff>
+      <xdr:colOff>551880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2258,8 +2259,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5261760" y="95400"/>
-          <a:ext cx="6958440" cy="4517280"/>
+          <a:off x="5270040" y="95400"/>
+          <a:ext cx="6969600" cy="4516920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2280,9 +2281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>694800</xdr:colOff>
+      <xdr:colOff>694440</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2291,7 +2292,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="314280" y="2583360"/>
-        <a:ext cx="4517640" cy="2742480"/>
+        <a:ext cx="4524120" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2315,9 +2316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>710280</xdr:colOff>
+      <xdr:colOff>709920</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2331,7 +2332,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="57240" y="85680"/>
-          <a:ext cx="7732800" cy="1820880"/>
+          <a:ext cx="7737480" cy="1820520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2352,9 +2353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>517680</xdr:colOff>
+      <xdr:colOff>517320</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2368,8 +2369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7504560" y="1750680"/>
-          <a:ext cx="3858120" cy="2738160"/>
+          <a:off x="7509600" y="1750680"/>
+          <a:ext cx="3864240" cy="2737800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2390,9 +2391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>538560</xdr:colOff>
+      <xdr:colOff>538200</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2407,7 +2408,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="350640" y="8942040"/>
-          <a:ext cx="3715200" cy="2226240"/>
+          <a:ext cx="3716280" cy="2225880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2428,9 +2429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>464760</xdr:colOff>
+      <xdr:colOff>464400</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2444,8 +2445,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4229280" y="8950680"/>
-          <a:ext cx="4068360" cy="2301120"/>
+          <a:off x="4230360" y="8950680"/>
+          <a:ext cx="4073040" cy="2300760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2466,9 +2467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>481680</xdr:colOff>
+      <xdr:colOff>481320</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2482,8 +2483,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7498080" y="6373080"/>
-          <a:ext cx="3828600" cy="2410560"/>
+          <a:off x="7503120" y="6373080"/>
+          <a:ext cx="3834720" cy="2410200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2504,9 +2505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>123480</xdr:colOff>
+      <xdr:colOff>123120</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2515,7 +2516,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="190440" y="3900600"/>
-        <a:ext cx="3460320" cy="2366640"/>
+        <a:ext cx="3461400" cy="2366280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2534,9 +2535,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2544,8 +2545,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3755880" y="3886200"/>
-        <a:ext cx="3475800" cy="2361600"/>
+        <a:off x="3757320" y="3886200"/>
+        <a:ext cx="3479040" cy="2361240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2569,9 +2570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361080</xdr:colOff>
+      <xdr:colOff>360720</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2585,7 +2586,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4654800"/>
-          <a:ext cx="7131960" cy="1927440"/>
+          <a:ext cx="7139520" cy="1927080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2606,9 +2607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>258840</xdr:colOff>
+      <xdr:colOff>258480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2622,7 +2623,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="32400" y="6469560"/>
-          <a:ext cx="6997320" cy="2629080"/>
+          <a:ext cx="7004880" cy="2628720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2645,12 +2646,12 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.87"/>
   </cols>
   <sheetData>
@@ -3048,21 +3049,29 @@
       <c r="A14" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>9</v>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="18" t="n">
         <f aca="false">AVERAGE(B10:B13)</f>
         <v>139.725</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="F14" s="12" t="n">
         <f aca="false">$T$3*B13+(1-$T$3)*F13</f>
         <v>139.633803429888</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="16"/>
@@ -3071,12 +3080,12 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3103,35 +3112,35 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U24" activeCellId="0" sqref="U24"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="28" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,7 +3155,7 @@
       <c r="F2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="27" t="n">
+      <c r="G2" s="29" t="n">
         <f aca="false">E2/F2</f>
         <v>0</v>
       </c>
@@ -3173,7 +3182,7 @@
         <f aca="false">(1-$U$7)*F2+$U$7*ABS(D3)</f>
         <v>10.92</v>
       </c>
-      <c r="G3" s="27" t="n">
+      <c r="G3" s="29" t="n">
         <f aca="false">E3/F3</f>
         <v>-0.175824175824176</v>
       </c>
@@ -3201,7 +3210,7 @@
         <f aca="false">(1-$U$7)*F3+$U$7*ABS(D4)</f>
         <v>10.124</v>
       </c>
-      <c r="G4" s="27" t="n">
+      <c r="G4" s="29" t="n">
         <f aca="false">E4/F4</f>
         <v>-0.199920979849862</v>
       </c>
@@ -3229,7 +3238,7 @@
         <f aca="false">(1-$U$7)*F4+$U$7*ABS(D5)</f>
         <v>12.1848</v>
       </c>
-      <c r="G5" s="27" t="n">
+      <c r="G5" s="29" t="n">
         <f aca="false">E5/F5</f>
         <v>0.102718140634233</v>
       </c>
@@ -3257,7 +3266,7 @@
         <f aca="false">(1-$U$7)*F5+$U$7*ABS(D6)</f>
         <v>13.32488</v>
       </c>
-      <c r="G6" s="27" t="n">
+      <c r="G6" s="29" t="n">
         <f aca="false">E6/F6</f>
         <v>0.2615408168779</v>
       </c>
@@ -3285,12 +3294,12 @@
         <f aca="false">(1-$U$7)*F6+$U$7*ABS(D7)</f>
         <v>15.06924</v>
       </c>
-      <c r="G7" s="27" t="n">
+      <c r="G7" s="29" t="n">
         <f aca="false">E7/F7</f>
         <v>0.412319931197592</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U7" s="14" t="n">
         <v>0.1</v>
@@ -3319,12 +3328,12 @@
         <f aca="false">(1-$U$7)*F7+$U$7*ABS(D8)</f>
         <v>16.9937944</v>
       </c>
-      <c r="G8" s="27" t="n">
+      <c r="G8" s="29" t="n">
         <f aca="false">E8/F8</f>
         <v>0.530987452690377</v>
       </c>
       <c r="T8" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U8" s="14" t="n">
         <v>0.1</v>
@@ -3353,7 +3362,7 @@
         <f aca="false">(1-$U$7)*F8+$U$7*ABS(D9)</f>
         <v>20.93959768</v>
       </c>
-      <c r="G9" s="27" t="n">
+      <c r="G9" s="29" t="n">
         <f aca="false">E9/F9</f>
         <v>0.657430260618073</v>
       </c>
@@ -3381,7 +3390,7 @@
         <f aca="false">(1-$U$7)*F9+$U$7*ABS(D10)</f>
         <v>22.381784088</v>
       </c>
-      <c r="G10" s="27" t="n">
+      <c r="G10" s="29" t="n">
         <f aca="false">E10/F10</f>
         <v>0.711553590070536</v>
       </c>
@@ -3409,7 +3418,7 @@
         <f aca="false">(1-$U$7)*F10+$U$7*ABS(D11)</f>
         <v>23.34252262</v>
       </c>
-      <c r="G11" s="27" t="n">
+      <c r="G11" s="29" t="n">
         <f aca="false">E11/F11</f>
         <v>0.751082998363611</v>
       </c>
@@ -3437,19 +3446,19 @@
         <f aca="false">(1-$U$7)*F11+$U$7*ABS(D12)</f>
         <v>27.40740391064</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="29" t="n">
         <f aca="false">E12/F12</f>
         <v>0.809200620236421</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="n">
+      <c r="A13" s="30" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="19" t="n">
         <v>175.2</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="31" t="n">
         <f aca="false">0.8*C12+0.2*B12</f>
         <v>103.00693157888</v>
       </c>
@@ -3465,33 +3474,38 @@
         <f aca="false">(1-$U$7)*F12+$U$7*ABS(D13)</f>
         <v>31.885970361688</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="29" t="n">
         <f aca="false">E13/F13</f>
         <v>0.852399533494302</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="n">
+      <c r="A14" s="32" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="31" t="n">
+      <c r="B14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="33" t="n">
         <f aca="false">0.8*C13+0.2*B13</f>
         <v>117.445545263104</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33" t="n">
-        <f aca="false">AVERAGE(G2:G13)</f>
-        <v>0.392790682375751</v>
+      <c r="D14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K33" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3517,36 +3531,36 @@
       <selection pane="topLeft" activeCell="T19" activeCellId="0" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8"/>
   </cols>
   <sheetData>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="37" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
-        <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -3555,16 +3569,16 @@
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="J13" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,7 +3589,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,35 +3600,35 @@
         <v>7</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="37"/>
+        <v>19</v>
+      </c>
+      <c r="G15" s="38"/>
       <c r="J15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="35" t="n">
+      <c r="B16" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="35" t="n">
+      <c r="C16" s="36" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="s">
-        <v>24</v>
+      <c r="A18" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -3623,16 +3637,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="I18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="J18" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,7 +3657,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,59 +3668,59 @@
         <v>6</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="37"/>
+        <v>19</v>
+      </c>
+      <c r="G20" s="38"/>
       <c r="J20" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="35" t="n">
+      <c r="B21" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="35" t="n">
+      <c r="C21" s="36" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="37"/>
+      <c r="H37" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="37" t="s">
         <v>18</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="36" t="s">
-        <v>19</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -3732,26 +3746,26 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="35" t="n">
+      <c r="B41" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="C41" s="35" t="n">
+      <c r="C41" s="36" t="n">
         <v>9</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="L41" s="37"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="L41" s="38"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E42" s="37"/>
+      <c r="E42" s="38"/>
       <c r="G42" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42" s="0" t="n">
         <f aca="false">SUM(H38:H41)</f>
@@ -3767,17 +3781,17 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="36" t="s">
-        <v>24</v>
+      <c r="A44" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
@@ -3803,25 +3817,25 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="35" t="n">
+      <c r="B47" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="C47" s="35" t="n">
+      <c r="C47" s="36" t="n">
         <v>10</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E48" s="37"/>
+      <c r="E48" s="38"/>
       <c r="G48" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48" s="0" t="n">
         <f aca="false">SUM(H44:H47)</f>
@@ -3837,7 +3851,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L49" s="37"/>
+      <c r="L49" s="38"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3862,10 +3876,10 @@
       <selection pane="topLeft" activeCell="P27" activeCellId="0" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.8"/>
@@ -3874,43 +3888,43 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="L1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="34" t="s">
+      <c r="N1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2016</v>
@@ -3921,13 +3935,13 @@
       <c r="D2" s="0" t="n">
         <v>15.45</v>
       </c>
-      <c r="H2" s="39" t="s">
-        <v>37</v>
+      <c r="H2" s="40" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2017</v>
@@ -3938,13 +3952,13 @@
       <c r="D3" s="0" t="n">
         <v>46.26</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>39</v>
+      <c r="H3" s="40" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2017</v>
@@ -3955,13 +3969,13 @@
       <c r="D4" s="0" t="n">
         <v>85.52</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>41</v>
+      <c r="H4" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2017</v>
@@ -3972,13 +3986,13 @@
       <c r="D5" s="0" t="n">
         <v>139.13</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>43</v>
+      <c r="H5" s="40" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2017</v>
@@ -3989,13 +4003,13 @@
       <c r="D6" s="0" t="n">
         <v>213.84</v>
       </c>
-      <c r="H6" s="39" t="s">
-        <v>45</v>
+      <c r="H6" s="40" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2017</v>
@@ -4006,15 +4020,15 @@
       <c r="D7" s="0" t="n">
         <v>101.08</v>
       </c>
-      <c r="H7" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="H7" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2017</v>
@@ -4028,7 +4042,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2018</v>
@@ -4042,7 +4056,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2018</v>
@@ -4056,7 +4070,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2018</v>
@@ -4070,7 +4084,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2018</v>
@@ -4084,7 +4098,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2018</v>
@@ -4098,7 +4112,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2018</v>
@@ -4112,7 +4126,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2019</v>
@@ -4126,7 +4140,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2019</v>
@@ -4140,7 +4154,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2019</v>
@@ -4154,7 +4168,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2019</v>
@@ -4167,23 +4181,23 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="35" t="n">
+      <c r="A19" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="36" t="n">
         <v>2019</v>
       </c>
-      <c r="C19" s="35" t="n">
+      <c r="C19" s="36" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="35" t="n">
+      <c r="D19" s="36" t="n">
         <v>243.24</v>
       </c>
-      <c r="O19" s="35"/>
+      <c r="O19" s="36"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2019</v>
@@ -4194,7 +4208,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2020</v>
@@ -4205,7 +4219,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2020</v>
@@ -4216,7 +4230,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2020</v>
@@ -4227,7 +4241,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2020</v>
@@ -4238,7 +4252,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2020</v>
@@ -4246,9 +4260,9 @@
       <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
